--- a/lession2/task1/output1.xlsx
+++ b/lession2/task1/output1.xlsx
@@ -399,20 +399,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Кассир-стажер</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33234209?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>39000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33201316?query=data</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>HH</t>
@@ -425,12 +425,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Управляющий - стажер</t>
+          <t>Data scientist</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32909940?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33418971?query=data</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -451,20 +451,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Младший аналитик/Стажер</t>
+          <t>Data engineer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33511096?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/31935855?query=data</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>300000</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>HH</t>
@@ -477,22 +477,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Стажер/баннермейкер</t>
+          <t>Аналитик SQL (Big Data)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33411407?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32352881?query=data</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>91954</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10000 руб.</t>
+          <t>114943</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -507,22 +507,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Логист-стажер в транспортную компанию</t>
+          <t>Data science инженер</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33118524?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33485399?query=data</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45000</t>
+          <t>180000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100000 руб.</t>
+          <t>250000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Стажер</t>
+          <t>Data Scientist (NLP)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33281742?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/29845207?query=data</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Стажер (Аналитический центр)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32466754?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33511144?query=data</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Стажер - менеджер</t>
+          <t>Аналитик данных (Data Analyst)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33181114?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33496290?query=data</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -615,17 +615,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Аналитик-стажер</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32933018?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33484192?query=data</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>120000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -641,24 +641,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Стажер на склад автозапчастей</t>
+          <t>Quantitative Researcher</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33021041?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/29014173?query=data</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>45000 руб.</t>
-        </is>
-      </c>
+          <t>300000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>HH</t>
@@ -671,12 +667,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Стажер-аналитик (ГМУ, политология)</t>
+          <t>Data scientist</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/25755802?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32207352?query=data</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -697,20 +693,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Стажер-аналитик</t>
+          <t>Junior Data Manager/Data specialist</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33303387?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/32950054?query=data</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>HH</t>
@@ -723,20 +719,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Стажер</t>
+          <t>Аналитик-математик / Junior Data Analyst</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32323124?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/30250465?query=data</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>HH</t>
@@ -749,24 +749,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Стажер - системный аналитик</t>
+          <t>Аналитик данных</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33225426?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33235334?query=data</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>60000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>HH</t>
@@ -779,12 +775,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Стажер в отделе по подбору персонала Calzedonia Group</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/31060654?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33510123?query=data</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -805,24 +801,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Стажер в брокерскую компанию</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33517834?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33036113?query=data</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>30000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>HH</t>
@@ -835,20 +827,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HR стажер (стажер по подбору персонала)</t>
+          <t>Главный аналитик-математик (Data Analyst / Data Scientist)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33451164?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/30250856?query=data</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>180000</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>230000</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>HH</t>
@@ -861,12 +857,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Стажер / Intern</t>
+          <t>Data analyst (ML)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33488613?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31575185?query=data</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -887,20 +883,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ассистент-стажер в отдел оценки персонала</t>
+          <t>Chief Data Architect</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33416843?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/32090247?query=data</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>HH</t>
@@ -913,17 +909,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Практикант/стажер</t>
+          <t>Lead data scientist</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33505097?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32500962?query=data</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>200000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -939,20 +935,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Стажер-аналитик/Специалист по обработке данных в Excel</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33224681?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>35000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33282290?query=data</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>HH</t>
@@ -965,17 +961,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Стажер в PR-отдел</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33178882?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33204430?query=data</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>170000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -991,12 +987,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Инженер-стажер</t>
+          <t>Head of Data Science</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33488924?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32430749?query=data</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1017,20 +1013,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Помощник дизайнера/ стажер</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33280624?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>30000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/31756502?query=data</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
           <t>HH</t>
@@ -1043,12 +1039,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Стажер (sales / продажи)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33495928?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33508823?query=data</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1069,17 +1065,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Стажер в туристическое агентство</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33175073?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32457690?query=data</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>150000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1095,17 +1091,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Стажер в отдел по работе с персоналом</t>
+          <t>Business analyst</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33171202?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33418048?query=data</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>120000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1121,20 +1117,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Аналитик-стажер</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32029603?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>35000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33072731?query=data</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
           <t>HH</t>
@@ -1147,12 +1143,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Стажер в отдел Непрерывные улучшения</t>
+          <t>Data Security Researcher</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32467071?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33140593?query=data</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1173,12 +1169,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Стажер в Управление делопроизводства и протокола</t>
+          <t>Data Steward</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33492705?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33437176?query=data</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,22 +1195,18 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Quantitative Researcher Intern</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/31844648?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>150000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33386636?query=data</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>250000 руб.</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1229,12 +1221,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Стажер в рекламное агентство</t>
+          <t>Руководитель проектов (Data Science)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33489098?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33028789?query=data</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1255,12 +1247,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Стажер SMM / Таргетинг</t>
+          <t>Младший аналитик (игры)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32753102?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33286537?query=data</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1281,12 +1273,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Стажер-аналитик</t>
+          <t>Data Scientist Head</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32235351?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32998774?query=data</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,20 +1299,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Intern HR / Стажер отдела персонала</t>
+          <t>Machine learning engineer</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33114367?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33458174?query=data</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>HH</t>
@@ -1333,24 +1329,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Стажер SAP</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33477543?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31227526?query=data</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>40000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
           <t>HH</t>
@@ -1363,12 +1355,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Стажер в отдел подбора персонала</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33249575?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33237165?query=data</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1389,24 +1381,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Программист-стажер</t>
+          <t>Senior Data Scientist (Vietnam)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33052738?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33108933?query=data</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>90000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
           <t>HH</t>
@@ -1419,24 +1407,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Стажер-Тестировщик</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32711155?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33046794?query=data</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>35000</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>45000 руб.</t>
-        </is>
-      </c>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
           <t>HH</t>
@@ -1449,12 +1433,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Менеджер-стажер IT проектов</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33188710?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33126224?query=data</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1475,12 +1459,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Стажер QA</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33333877?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33497740?query=data</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1501,17 +1485,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Стажер-инженер</t>
+          <t>Data analyst</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33260350?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33498193?query=data</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1527,12 +1511,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Стажер в отдел трудовых отношений</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/31782679?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32970988?query=data</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1553,24 +1537,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ассистент/ стажер</t>
+          <t>Стажёр(Анализ данных,data science)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33482015?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33055471?query=data</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>25000</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>30000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
           <t>HH</t>
@@ -1583,12 +1563,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Стажер (Логистика)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32467287?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32748904?query=data</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1609,17 +1589,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Программист-стажер</t>
+          <t>Junior BM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/31533142?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33481861?query=data</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>70000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -1635,12 +1615,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Практикант / Стажер (управление проектами)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33187207?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/19914312?query=data</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1661,24 +1641,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Стажёр в Центр океанографии и морской биологии "Москвариум"</t>
+          <t>Аналитик данных</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33105495?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31686646?query=data</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>40000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
           <t>HH</t>
@@ -1691,12 +1667,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Стажер (ассистент редакции модного журнала)</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33166110?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32717834?query=data</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1717,12 +1693,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Стажер-редактор сайта и социальных сетей</t>
+          <t>Data Scientist (Industrial Internet of Things)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33489030?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31938132?query=data</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1743,17 +1719,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Аналитик-стажер</t>
+          <t>Аналитик (команда Поиска)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33186263?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33230898?query=data</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -1769,12 +1745,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Стажер в отдел E-commerce</t>
+          <t>Data-analyst (anti-fraud)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32882012?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31006933?query=data</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1795,12 +1771,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Investment Analyst</t>
+          <t>Консультант Data Management</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33200726?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33451584?query=data</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1821,20 +1797,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Вирусный аналитик-стажер / Junior Malware Analyst</t>
+          <t>Quantitative Researcher Intern</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/31336879?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31844648?query=data</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>250000</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>HH</t>
@@ -1847,17 +1827,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Инвестиционный аналитик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32967626?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33254239?query=data</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -1873,20 +1853,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ассистент менеджера по развитию бизнеса/Стажёр</t>
+          <t>Computer Vision / Data scientist CV</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33487661?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33352742?query=data</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>HH</t>
@@ -1899,12 +1883,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Стажер в digital маркетинг агентство / digital intern</t>
+          <t>Analytical Consultant Data Mining (Retail Practice)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33177956?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33453392?query=data</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1925,17 +1909,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Стажер в отдел экспорта</t>
+          <t>Data-аналитик системы лояльности</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33500973?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33276318?query=data</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>30000</t>
+          <t>80000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -1951,12 +1935,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Стажер-интервьюер в Службу исследований HeadHunter</t>
+          <t>Data scientist (NLP/NLU)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33012593?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33481272?query=data</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1977,17 +1961,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Стажер инвестиционного отдела</t>
+          <t>Стажер (Группа анализа данных и моделирования бизнеса , Data analytics)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/30324747?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31160150?query=data</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -2003,12 +1987,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Стажёр в юридическую фирму</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33301671?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33490747?query=data</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2029,12 +2013,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Стажер в отдел по подбору персонала</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/30674368?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31934468?query=data</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2055,12 +2039,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Программист-стажер</t>
+          <t>Data Scientist in AntiFraud</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33356062?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33508562?query=data</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2081,12 +2065,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Стажер 1С</t>
+          <t>Data scientist (fraud prevention)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33390227?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33485727?query=data</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2107,24 +2091,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Бизнес-аналитик стажер</t>
+          <t>Младший аналитик, Группа анализа данных и моделирования бизнеса (Data analytics)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/30805015?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31160219?query=data</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>50000</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>60000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2137,24 +2117,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Event-менеджер (стажер)</t>
+          <t>Data Engineer (Clickstream)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33351547?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32925865?query=data</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>40000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2167,24 +2143,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Стажер Правительства Москвы</t>
+          <t>Junior Data Scientist / Data Scientist (Anti-Spam)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33427866?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32088704?query=data</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>23000</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>40000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2197,12 +2169,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Intern (Operations, New Business Group) / Стажер (Операционное управление)</t>
+          <t>Эксперт Data Scientist</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33208642?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33478456?query=data</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2223,20 +2195,24 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Стажер в Отдел по персоналу</t>
+          <t>Big Data Developer</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33206264?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31578452?query=data</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>160000</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>250000</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2249,12 +2225,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Стажер проектного отдела</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33103482?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33097848?query=data</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2275,22 +2251,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Стажер (младший специалист) по контекстной рекламе</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33103451?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33440110?query=data</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>130000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>40000 руб.</t>
+          <t>190000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2305,17 +2281,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Стажер в отделе маркетинга</t>
+          <t>Junior Data Engineer / Data Engineer</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33358109?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33000938?query=data</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -2331,12 +2307,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Аудитор многопрофильного инвестиционного фонда Altus Capital</t>
+          <t>Младший аналитик (big data решения для маркетинга)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33224883?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31846787?query=data</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2357,12 +2333,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Стажер в отделе маркетинга</t>
+          <t>Аналитик данных / Data Scientist</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33427824?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32377243?query=data</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2383,17 +2359,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Руководитель административно-финансового направления</t>
+          <t>Data Scientist/Аналитик данных</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33087776?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32535696?query=data</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>180000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -2409,12 +2385,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Intern (Operations, Account Management group) / Стажер (Операционное управление)</t>
+          <t>Data Engineer YouDo</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33208647?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33463827?query=data</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2435,12 +2411,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Стажёр(Анализ данных,data science)</t>
+          <t>Resource Management and Scheduling Algorithm Expert</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33055471?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33140538?query=data</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2461,12 +2437,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Стажер в отдел анализа и разработки алгоритмических торговых систем / Intern Quantitative Researcher</t>
+          <t>Data Scientist &amp; ML-разработчик</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32054863?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/29409802?query=data</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2487,24 +2463,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Стажер в отдел сертификации</t>
+          <t>Senior Data scientist</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32240687?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32585253?query=data</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>45000</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>70000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2517,12 +2489,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Стажер в отдел кадров</t>
+          <t>Старший менеджер проектов Key Accounts\Big Data</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33409916?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33459806?query=data</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2543,24 +2515,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Менеджер по логистике (стажер)</t>
+          <t>Data Scientist (FinTech)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33357972?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32994550?query=data</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>30000</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>40000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2573,24 +2541,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Стажер в отдел логистики</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33036605?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33087619?query=data</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>40000</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>50000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2603,12 +2567,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Стажер в Департамент информационной безопасности</t>
+          <t>Data Sсientist (ML/Python)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32272354?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33481247?query=data</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2629,12 +2593,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Marketing Intelligence Intern</t>
+          <t>ML Engineer/Data scientist</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33151272?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/31464979?query=data</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2655,12 +2619,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Стажер в отдел сопровождения M&amp;A сделок (Due Diligence)</t>
+          <t>Аналитик</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/31407309?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33318593?query=data</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2681,22 +2645,18 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Вечерний стажер</t>
+          <t>Аналитик по Корпоративным Данным (Business Data Analyst)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32534378?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>30000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33452470?query=data</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>50000 руб.</t>
+          <t>250000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -2711,20 +2671,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Повар-стажер в ресторан YUMBAKER</t>
+          <t>Junior Marketing Analyst</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33114800?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>40800</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33517159?query=data</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2737,12 +2697,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Стажер / Помощник юриста</t>
+          <t>Marketing Intelligence Intern</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33386730?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33151272?query=data</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2763,12 +2723,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Стажер в отдел кадров</t>
+          <t>Big Data Architect</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33161382?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32868701?query=data</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2789,12 +2749,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Стажер контент-редактор</t>
+          <t>Senior BI Data Engineer</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33425838?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33197173?query=data</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2815,17 +2775,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Стажер в Отдел по работе с персоналом (HR)</t>
+          <t>Lead Data Scientist</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33433561?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33428205?query=data</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Не указано</t>
+          <t>300000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -2841,24 +2801,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Стажер 1С</t>
+          <t>Junior analyst/data scientist</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33354320?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33145944?query=data</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>18000</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>20000 руб.</t>
-        </is>
-      </c>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2871,20 +2827,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Trade Support Officer</t>
+          <t>Data Engineer / Junior Data Engineer</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33508339?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Не указано</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
+          <t>https://hh.ru/vacancy/33255911?query=data</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>75000</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2897,20 +2853,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SMM-менеджер (стажер в IT-стартап из США)</t>
+          <t>Data Engineer Intern</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33236076?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>25000</t>
-        </is>
-      </c>
+          <t>https://hh.ru/vacancy/33482385?query=data</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Не указано</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
           <t>HH</t>
@@ -2923,12 +2879,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PHP Программист (Стажёр)</t>
+          <t>Бизнес-аналитик (E-Learning)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33360495?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/32602893?query=data</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2949,12 +2905,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Стажер отдела маркетинга</t>
+          <t>Middle Data Engineer</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33441884?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/30552875?query=data</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2975,17 +2931,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Младший аналитик</t>
+          <t>Xiaomi Russia Sales Manager</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/31522509?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33518314?query=data</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>40000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -3001,12 +2957,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Стажер</t>
+          <t>Главный аналитик/BI Analyst</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/32794792?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33505257?query=data</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3027,17 +2983,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Стажер</t>
+          <t>Data scientist/Python</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33454944?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33497121?query=data</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>Не указано</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -3053,12 +3009,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>L'insegnante dell'italiano (vengono lingua straniera)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/33367156?query=%D1%81%D1%82%D0%B0%D0%B6%D0%B5%D1%80</t>
+          <t>https://hh.ru/vacancy/33460021?query=data</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
